--- a/設計書/画面遷移図.xlsx
+++ b/設計書/画面遷移図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E5BC40-C511-41BC-B520-0C673691E554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D8F45-9A5A-4634-B99A-08BB52153924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
+    <workbookView minimized="1" xWindow="1380" yWindow="1995" windowWidth="15315" windowHeight="8910" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -1147,135 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1158,135 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
   <dimension ref="A1:BK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="R16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2153,169 +2153,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="76" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="77" t="s">
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
       <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="76" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="78">
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="82">
         <v>45145</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
     </row>
     <row r="3" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="76" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
     </row>
     <row r="4" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="78">
-        <v>45146</v>
-      </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="82">
+        <v>45147</v>
+      </c>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
     </row>
     <row r="6" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="16"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="28"/>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="44"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48"/>
     </row>
     <row r="7" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="26"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="23"/>
       <c r="S7" s="19"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="47"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="51"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2458,30 +2458,30 @@
       <c r="O12" s="6"/>
       <c r="Q12" s="8"/>
       <c r="S12" s="28"/>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="54"/>
-      <c r="AW12" s="36" t="s">
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="58"/>
+      <c r="AW12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="37"/>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="38"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="42"/>
     </row>
     <row r="13" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="57"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="61"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
@@ -2506,11 +2506,11 @@
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
       <c r="AV13" s="11"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="41"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="45"/>
     </row>
     <row r="14" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="9"/>
@@ -2600,30 +2600,30 @@
       <c r="E19" s="12"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="42" t="s">
+      <c r="T19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="44"/>
-      <c r="AW19" s="36" t="s">
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="48"/>
+      <c r="AW19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="38"/>
+      <c r="AX19" s="41"/>
+      <c r="AY19" s="41"/>
+      <c r="AZ19" s="41"/>
+      <c r="BA19" s="42"/>
     </row>
     <row r="20" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="8"/>
       <c r="R20" s="10"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="47"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="51"/>
       <c r="Y20" s="21"/>
       <c r="AK20" s="13"/>
       <c r="AL20" s="13"/>
@@ -2637,11 +2637,11 @@
       <c r="AT20" s="13"/>
       <c r="AU20" s="13"/>
       <c r="AV20" s="11"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="41"/>
+      <c r="AW20" s="43"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="45"/>
     </row>
     <row r="21" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q21" s="8"/>
@@ -2685,20 +2685,20 @@
       <c r="G25" s="2"/>
       <c r="Q25" s="8"/>
       <c r="S25" s="28"/>
-      <c r="T25" s="36" t="s">
+      <c r="T25" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38"/>
-      <c r="AH25" s="36" t="s">
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="42"/>
+      <c r="AH25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="38"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="42"/>
       <c r="AM25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2717,11 +2717,11 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="13"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="41"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="45"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="10"/>
@@ -2731,11 +2731,11 @@
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="11"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="41"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="45"/>
       <c r="AM26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2773,8 +2773,8 @@
         <v>30</v>
       </c>
       <c r="Z29" s="8"/>
-      <c r="AX29" s="81"/>
-      <c r="AY29" s="82"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="39"/>
     </row>
     <row r="30" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q30" s="8"/>
@@ -2795,44 +2795,44 @@
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
-      <c r="AY30" s="80"/>
+      <c r="AY30" s="37"/>
     </row>
     <row r="31" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" s="28"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
       <c r="P31" s="32"/>
       <c r="Q31" s="8"/>
       <c r="U31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Z31" s="8"/>
-      <c r="AH31" s="36" t="s">
+      <c r="AH31" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="38"/>
-      <c r="AV31" s="79"/>
-      <c r="AW31" s="36" t="s">
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="42"/>
+      <c r="AV31" s="36"/>
+      <c r="AW31" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="37"/>
-      <c r="BA31" s="38"/>
+      <c r="AX31" s="41"/>
+      <c r="AY31" s="41"/>
+      <c r="AZ31" s="41"/>
+      <c r="BA31" s="42"/>
       <c r="BJ31" s="34"/>
     </row>
     <row r="32" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
       <c r="Q32" s="8"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
@@ -2841,11 +2841,11 @@
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="41"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="45"/>
       <c r="AM32" s="10"/>
       <c r="AN32" s="13"/>
       <c r="AO32" s="13"/>
@@ -2856,11 +2856,11 @@
       <c r="AT32" s="13"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="11"/>
-      <c r="AW32" s="39"/>
-      <c r="AX32" s="40"/>
-      <c r="AY32" s="40"/>
-      <c r="AZ32" s="40"/>
-      <c r="BA32" s="41"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="45"/>
       <c r="BB32" s="10"/>
       <c r="BC32" s="13"/>
       <c r="BD32" s="13"/>
@@ -2916,46 +2916,46 @@
     </row>
     <row r="38" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="29"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="8"/>
       <c r="S38" s="28"/>
-      <c r="T38" s="36" t="s">
+      <c r="T38" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="38"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="42"/>
       <c r="AV38" s="34"/>
-      <c r="AW38" s="58" t="s">
+      <c r="AW38" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AX38" s="59"/>
-      <c r="AY38" s="59"/>
-      <c r="AZ38" s="59"/>
-      <c r="BA38" s="60"/>
+      <c r="AX38" s="63"/>
+      <c r="AY38" s="63"/>
+      <c r="AZ38" s="63"/>
+      <c r="BA38" s="64"/>
       <c r="BB38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
       <c r="R39" s="13"/>
       <c r="S39" s="11"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="41"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="45"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
@@ -2980,11 +2980,11 @@
       <c r="AT39" s="13"/>
       <c r="AU39" s="13"/>
       <c r="AV39" s="35"/>
-      <c r="AW39" s="61"/>
-      <c r="AX39" s="62"/>
-      <c r="AY39" s="62"/>
-      <c r="AZ39" s="62"/>
-      <c r="BA39" s="63"/>
+      <c r="AW39" s="65"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="66"/>
+      <c r="BA39" s="67"/>
     </row>
     <row r="40" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U40" s="1" t="s">
@@ -3007,13 +3007,13 @@
       </c>
     </row>
     <row r="44" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AW44" s="36" t="s">
+      <c r="AW44" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AX44" s="37"/>
-      <c r="AY44" s="37"/>
-      <c r="AZ44" s="37"/>
-      <c r="BA44" s="38"/>
+      <c r="AX44" s="41"/>
+      <c r="AY44" s="41"/>
+      <c r="AZ44" s="41"/>
+      <c r="BA44" s="42"/>
     </row>
     <row r="45" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AK45" s="13"/>
@@ -3028,11 +3028,11 @@
       <c r="AT45" s="13"/>
       <c r="AU45" s="13"/>
       <c r="AV45" s="11"/>
-      <c r="AW45" s="39"/>
-      <c r="AX45" s="40"/>
-      <c r="AY45" s="40"/>
-      <c r="AZ45" s="40"/>
-      <c r="BA45" s="41"/>
+      <c r="AW45" s="43"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="45"/>
     </row>
     <row r="46" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX46" s="1" t="s">

--- a/設計書/画面遷移図.xlsx
+++ b/設計書/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D8F45-9A5A-4634-B99A-08BB52153924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3799C0-F3D7-4153-8120-B0DCF7574475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1380" yWindow="1995" windowWidth="15315" windowHeight="8910" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -352,30 +352,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・強制終了</t>
-    <rPh sb="1" eb="3">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・確認</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・強制終了</t>
-    <rPh sb="1" eb="5">
-      <t>キョウセイシュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・CSV出力</t>
     <rPh sb="4" eb="6">
       <t>シュツリョク</t>
@@ -438,13 +414,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・保存</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>確認画面の内容をCSVファイルで出力</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -660,6 +629,43 @@
     <t>給与テーブル</t>
     <rPh sb="0" eb="2">
       <t>キュウヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・会社評価</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・自己評価</t>
+    <rPh sb="1" eb="3">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・社員を選択しなおす</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・結果</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -668,7 +674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,23 +766,7 @@
       <sz val="11"/>
       <color theme="8"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -823,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1032,13 +1022,39 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,58 +1100,37 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1147,9 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1149,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,16 +1673,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>129153</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1699,8 +1697,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9852240" y="9088949"/>
-          <a:ext cx="5328" cy="1424068"/>
+          <a:off x="5886450" y="9286875"/>
+          <a:ext cx="0" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1725,14 +1723,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>128577</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>80952</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>234234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>36906</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>265506</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>234234</xdr:rowOff>
     </xdr:to>
@@ -1749,7 +1747,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9805977" y="10473609"/>
+          <a:off x="5891202" y="10473609"/>
           <a:ext cx="1013229" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1837,6 +1835,306 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0E229D-B90E-4559-8B6C-CF9A517F4F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9791700" y="6943725"/>
+          <a:ext cx="200025" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041B4545-3D02-4F07-B5D3-286479D34397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9601200" y="6943725"/>
+          <a:ext cx="200025" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BC3BC8-A7BD-43CC-981E-FFC81B1D6786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9582150" y="6196013"/>
+          <a:ext cx="200025" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C811D26-DB0F-44C6-B5F3-6C863DE5DADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9782175" y="6196013"/>
+          <a:ext cx="200025" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113A7A43-EE34-4CF5-80A1-393897EA4C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5676900" y="9291638"/>
+          <a:ext cx="200025" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049828F8-31FE-415F-941F-8944642A67E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5876925" y="9291638"/>
+          <a:ext cx="200025" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2141,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
   <dimension ref="A1:BK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP30" sqref="AP30"/>
+    <sheetView tabSelected="1" topLeftCell="N24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2153,169 +2451,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
       <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="80" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="82">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="76">
         <v>45145</v>
       </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
     </row>
     <row r="3" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="80" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="4" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="82">
-        <v>45147</v>
-      </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="76">
+        <v>45148</v>
+      </c>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
     </row>
     <row r="6" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="16"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="48"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="42"/>
     </row>
     <row r="7" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="15"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="51"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="45"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2331,7 +2629,6 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2342,7 +2639,6 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -2371,7 +2667,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -2401,7 +2697,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -2451,38 +2747,40 @@
     <row r="12" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="Q12" s="8"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="40" t="s">
+      <c r="S12" s="27"/>
+      <c r="T12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="58"/>
-      <c r="AW12" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="42"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="32"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="36"/>
     </row>
     <row r="13" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="8"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="10"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="33"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
@@ -2505,12 +2803,12 @@
       <c r="AS13" s="13"/>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="43"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="45"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="39"/>
     </row>
     <row r="14" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="9"/>
@@ -2525,10 +2823,10 @@
       <c r="O14" s="2"/>
       <c r="Q14" s="8"/>
       <c r="U14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2559,7 +2857,7 @@
       <c r="I16" s="9"/>
       <c r="Q16" s="8"/>
       <c r="U16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AX16" s="1" t="s">
         <v>17</v>
@@ -2580,7 +2878,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2599,32 +2897,33 @@
     <row r="19" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="12"/>
       <c r="Q19" s="8"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="46" t="s">
+      <c r="S19" s="27"/>
+      <c r="T19" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="48"/>
-      <c r="AW19" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="41"/>
-      <c r="BA19" s="42"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="42"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="35"/>
+      <c r="BA19" s="36"/>
     </row>
     <row r="20" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="8"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="21"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="17"/>
       <c r="AK20" s="13"/>
       <c r="AL20" s="13"/>
       <c r="AM20" s="13"/>
@@ -2636,12 +2935,12 @@
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
       <c r="AU20" s="13"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="43"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="44"/>
-      <c r="BA20" s="45"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="39"/>
     </row>
     <row r="21" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q21" s="8"/>
@@ -2649,7 +2948,7 @@
         <v>20</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2672,11 +2971,11 @@
     </row>
     <row r="24" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P24" s="4"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="17"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="15"/>
       <c r="S24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AS24" s="20"/>
+      <c r="AS24" s="16"/>
     </row>
     <row r="25" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
@@ -2684,25 +2983,27 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="Q25" s="8"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="42"/>
-      <c r="AH25" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="42"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="32"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="36"/>
       <c r="AM25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AO25" s="22"/>
+      <c r="AO25" s="18"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
@@ -2716,13 +3017,13 @@
       <c r="G26" s="2"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="13"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="10"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="33"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="13"/>
@@ -2730,22 +3031,22 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="45"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="39"/>
       <c r="AM26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AO26" s="22"/>
+      <c r="AO26" s="18"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="20"/>
+      <c r="AU26" s="16"/>
     </row>
     <row r="27" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q27" s="8"/>
@@ -2764,21 +3065,21 @@
       </c>
       <c r="Z28" s="8"/>
       <c r="AM28" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q29" s="8"/>
       <c r="U29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z29" s="8"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="39"/>
+      <c r="AX29" s="30"/>
+      <c r="AY29" s="31"/>
     </row>
     <row r="30" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q30" s="8"/>
-      <c r="R30" s="31"/>
+      <c r="R30" s="24"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14" t="s">
@@ -2788,51 +3089,53 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="33"/>
+      <c r="Z30" s="26"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
-      <c r="AY30" s="37"/>
+      <c r="AY30" s="29"/>
     </row>
     <row r="31" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J31" s="28"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="32"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="25"/>
       <c r="Q31" s="8"/>
       <c r="U31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Z31" s="8"/>
-      <c r="AH31" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="42"/>
-      <c r="AV31" s="36"/>
-      <c r="AW31" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX31" s="41"/>
-      <c r="AY31" s="41"/>
-      <c r="AZ31" s="41"/>
-      <c r="BA31" s="42"/>
-      <c r="BJ31" s="34"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="32"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX31" s="35"/>
+      <c r="AY31" s="35"/>
+      <c r="AZ31" s="35"/>
+      <c r="BA31" s="36"/>
+      <c r="BJ31" s="27"/>
     </row>
     <row r="32" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
       <c r="Q32" s="8"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
@@ -2840,13 +3143,13 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="43"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="10"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="33"/>
       <c r="AN32" s="13"/>
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
@@ -2855,12 +3158,12 @@
       <c r="AS32" s="13"/>
       <c r="AT32" s="13"/>
       <c r="AU32" s="13"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="43"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="44"/>
-      <c r="BA32" s="45"/>
+      <c r="AV32" s="28"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="38"/>
+      <c r="AY32" s="38"/>
+      <c r="AZ32" s="38"/>
+      <c r="BA32" s="39"/>
       <c r="BB32" s="10"/>
       <c r="BC32" s="13"/>
       <c r="BD32" s="13"/>
@@ -2869,7 +3172,7 @@
       <c r="BG32" s="13"/>
       <c r="BH32" s="13"/>
       <c r="BI32" s="13"/>
-      <c r="BJ32" s="35"/>
+      <c r="BJ32" s="28"/>
       <c r="BK32" s="13"/>
     </row>
     <row r="33" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2887,76 +3190,80 @@
         <v>6</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q35" s="8"/>
       <c r="AI35" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q36" s="8"/>
       <c r="AI36" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q37" s="8"/>
       <c r="AI37" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="AX37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J38" s="29"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="30"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="23"/>
       <c r="Q38" s="8"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="40" t="s">
+      <c r="S38" s="27"/>
+      <c r="T38" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="32"/>
+      <c r="AV38" s="27"/>
+      <c r="AW38" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX38" s="57"/>
+      <c r="AY38" s="57"/>
+      <c r="AZ38" s="57"/>
+      <c r="BA38" s="58"/>
+      <c r="BB38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="42"/>
-      <c r="AV38" s="34"/>
-      <c r="AW38" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX38" s="63"/>
-      <c r="AY38" s="63"/>
-      <c r="AZ38" s="63"/>
-      <c r="BA38" s="64"/>
-      <c r="BB38" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="39" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="13"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="33"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
@@ -2979,43 +3286,58 @@
       <c r="AS39" s="13"/>
       <c r="AT39" s="13"/>
       <c r="AU39" s="13"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="65"/>
-      <c r="AX39" s="66"/>
-      <c r="AY39" s="66"/>
-      <c r="AZ39" s="66"/>
-      <c r="BA39" s="67"/>
+      <c r="AV39" s="28"/>
+      <c r="AW39" s="59"/>
+      <c r="AX39" s="60"/>
+      <c r="AY39" s="60"/>
+      <c r="AZ39" s="60"/>
+      <c r="BA39" s="61"/>
     </row>
     <row r="40" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U40" s="1" t="s">
-        <v>39</v>
+      <c r="W40" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U42" s="1" t="s">
-        <v>29</v>
+      <c r="W42" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U43" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AW44" s="40" t="s">
+      <c r="AV44" s="27"/>
+      <c r="AW44" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AX44" s="41"/>
-      <c r="AY44" s="41"/>
-      <c r="AZ44" s="41"/>
-      <c r="BA44" s="42"/>
+      <c r="AX44" s="35"/>
+      <c r="AY44" s="35"/>
+      <c r="AZ44" s="35"/>
+      <c r="BA44" s="36"/>
     </row>
     <row r="45" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
       <c r="AK45" s="13"/>
       <c r="AL45" s="13"/>
       <c r="AM45" s="13"/>
@@ -3027,16 +3349,16 @@
       <c r="AS45" s="13"/>
       <c r="AT45" s="13"/>
       <c r="AU45" s="13"/>
-      <c r="AV45" s="11"/>
-      <c r="AW45" s="43"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="45"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="37"/>
+      <c r="AX45" s="38"/>
+      <c r="AY45" s="38"/>
+      <c r="AZ45" s="38"/>
+      <c r="BA45" s="39"/>
     </row>
     <row r="46" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX46" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3046,7 +3368,7 @@
     </row>
     <row r="48" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX48" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="50:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
